--- a/public/reportTemplates/localStatistics.xlsx
+++ b/public/reportTemplates/localStatistics.xlsx
@@ -28,11 +28,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>地方金融组织融资借贷类汇总统计表</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>{d.queryFormat}</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
   </si>
   <si>
     <t>地方金融组织融资借贷类（商业保理）统计表</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>频次：{d.span}度，单位：万元、家、笔、%。</t>
@@ -1149,7 +1149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1284,9 +1284,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1626,7 +1623,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1655,31 +1652,37 @@
       <c r="A3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A5" s="39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="18.75" spans="1:5">
@@ -1687,10 +1690,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="19"/>
@@ -1701,7 +1704,7 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="19"/>
@@ -1712,7 +1715,7 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="19"/>
@@ -1722,13 +1725,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="44"/>
     </row>
@@ -1738,23 +1741,23 @@
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="44"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="28.5" spans="1:5">
+    <row r="11" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A11" s="43">
         <v>6</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="45" t="s">
         <v>18</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="44"/>
     </row>
@@ -1764,7 +1767,7 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="19"/>
@@ -1775,7 +1778,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="19"/>
@@ -1785,10 +1788,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="19"/>
@@ -1799,7 +1802,7 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="19"/>
@@ -1810,50 +1813,50 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="46"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A17" s="43">
         <v>12</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="47"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="19.5" spans="1:5">
-      <c r="A18" s="48">
+      <c r="A18" s="47">
         <v>13</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50" t="s">
-        <v>27</v>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="51"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A19" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="A19" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="54.95" customHeight="1" spans="1:5">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="2"/>
@@ -1861,14 +1864,14 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1894,7 +1897,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1910,7 +1913,7 @@
     <row r="1" ht="9.95" customHeight="1"/>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1919,12 +1922,17 @@
     </row>
     <row r="3" ht="8.1" customHeight="1"/>
     <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>31</v>
@@ -1932,19 +1940,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
@@ -1952,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>32</v>
@@ -1966,7 +1974,7 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -1977,7 +1985,7 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="14"/>
@@ -1987,7 +1995,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>33</v>
@@ -2003,7 +2011,7 @@
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>35</v>
@@ -2018,7 +2026,7 @@
       <c r="C11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="20"/>
@@ -2061,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>41</v>
@@ -2108,7 +2116,7 @@
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="14"/>
@@ -2118,10 +2126,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="33"/>
@@ -2132,7 +2140,7 @@
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>

--- a/public/reportTemplates/localStatistics.xlsx
+++ b/public/reportTemplates/localStatistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25605" windowHeight="12060" activeTab="1"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>{d.queryFormat}</t>
   </si>
   <si>
-    <t>频次：{d.span}度，单位：万元，家，人。</t>
+    <t>频次：月度，单位：万元，家，人。</t>
   </si>
   <si>
     <t>序号</t>
@@ -72,7 +72,7 @@
     <t>业务经营</t>
   </si>
   <si>
-    <t>本{d.span}累计业务总额</t>
+    <t>本年累计业务总额</t>
   </si>
   <si>
     <t>{d.summary.total_business_amount}</t>
@@ -84,7 +84,7 @@
     <t>{d.summary.agri_small_business_amount}</t>
   </si>
   <si>
-    <t>本{d.span}累计服务客户数</t>
+    <t>本年累计服务客户数</t>
   </si>
   <si>
     <t>{d.summary.served_customer_count}</t>
@@ -117,19 +117,19 @@
     <t>上缴税收</t>
   </si>
   <si>
-    <t xml:space="preserve">注：1.融资借贷类地方金融组织包括小额贷款公司、典当行、融资租赁公司、商业保理公司、民间融资服务企业、农民资金互助组织等六类。                                                                                                                                                     2.本表可按月度、季度、年度统计；其中，农民资金互助组织采集季报数据。                                                                                                                              </t>
+    <t xml:space="preserve">注：1.融资借贷类地方金融组织包括小额贷款公司、典当行、融资租赁公司、商业保理公司、民间融资服务企业、农民资金互助组织等六类。                                                                                                                                                     2.本表按当年年初至输入月份的累计口径统计；其中，农民资金互助组织采集季报数据。                                                                                                                              </t>
   </si>
   <si>
     <t>地方金融组织融资借贷类（商业保理）统计表</t>
   </si>
   <si>
-    <t>频次：{d.span}度，单位：万元、家、笔、%。</t>
+    <t>频次：月度，单位：万元、家、笔、%。</t>
   </si>
   <si>
     <t>机构数量</t>
   </si>
   <si>
-    <t>本{d.span}累计融资保理业务总额</t>
+    <t>本年累计融资保理业务总额</t>
   </si>
   <si>
     <t>{d.factoring.financing_factoring_business_amount}</t>
@@ -138,7 +138,7 @@
     <t>{d.factoring.agri_small_factoring_business_amount}</t>
   </si>
   <si>
-    <t>本{d.span}累计保理合同笔数</t>
+    <t>本年累计保理合同笔数</t>
   </si>
   <si>
     <t>{d.factoring.factoring_contract_count}</t>
@@ -1622,8 +1622,8 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1896,8 +1896,8 @@
   <sheetPr/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
